--- a/EvaluationResults/RQ2+RQ3/3-SlsDetector-gpt4o-result.xlsx
+++ b/EvaluationResults/RQ2+RQ3/3-SlsDetector-gpt4o-result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cynthia/Desktop/Cynthia WorkSpace/serverless misconfiguration/LLM新方法设计/AllCode/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE492690-3A52-3443-BC8D-3B4C7CC3E748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E1E0F8-F6C6-2E4C-9535-54D2589E1105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1068,7 +1068,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1098,6 +1098,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1376,8 +1388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="125" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="82" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -1393,7 +1405,7 @@
     <col min="10" max="10" width="14.59765625" style="1"/>
     <col min="11" max="11" width="14" style="3"/>
     <col min="12" max="13" width="14" style="1"/>
-    <col min="14" max="14" width="14" style="3"/>
+    <col min="14" max="14" width="14" style="13"/>
     <col min="15" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
@@ -1435,7 +1447,7 @@
         <v>309</v>
       </c>
       <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
+      <c r="N1" s="10"/>
       <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:16" ht="85">
@@ -1477,9 +1489,7 @@
         <f>G2-K2</f>
         <v>125</v>
       </c>
-      <c r="N2" s="8">
-        <v>2</v>
-      </c>
+      <c r="N2" s="11"/>
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16" ht="85">
@@ -1521,9 +1531,7 @@
         <f t="shared" ref="L3:L66" si="1">G3-K3</f>
         <v>95</v>
       </c>
-      <c r="N3" s="8">
-        <v>2</v>
-      </c>
+      <c r="N3" s="11"/>
       <c r="P3" s="4"/>
     </row>
     <row r="4" spans="1:16" ht="85">
@@ -1565,9 +1573,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="N4" s="8">
-        <v>1</v>
-      </c>
+      <c r="N4" s="11"/>
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:16" ht="85">
@@ -1609,9 +1615,7 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="N5" s="8">
-        <v>3</v>
-      </c>
+      <c r="N5" s="11"/>
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:16" ht="51">
@@ -1653,9 +1657,7 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="N6" s="8">
-        <v>0</v>
-      </c>
+      <c r="N6" s="11"/>
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16" ht="85">
@@ -1697,9 +1699,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
+      <c r="N7" s="11"/>
       <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:16" ht="85">
@@ -1741,9 +1741,7 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="N8" s="8">
-        <v>3</v>
-      </c>
+      <c r="N8" s="11"/>
       <c r="P8" s="4"/>
     </row>
     <row r="9" spans="1:16" ht="85">
@@ -1785,9 +1783,7 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="N9" s="8">
-        <v>1</v>
-      </c>
+      <c r="N9" s="11"/>
       <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:16" ht="85">
@@ -1829,9 +1825,7 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="N10" s="8">
-        <v>4</v>
-      </c>
+      <c r="N10" s="11"/>
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16" ht="85">
@@ -1873,9 +1867,7 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="N11" s="7">
-        <v>3</v>
-      </c>
+      <c r="N11" s="12"/>
       <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16" ht="85">
@@ -1917,9 +1909,7 @@
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="N12" s="8">
-        <v>1</v>
-      </c>
+      <c r="N12" s="11"/>
       <c r="P12" s="4"/>
     </row>
     <row r="13" spans="1:16" ht="51">
@@ -1961,9 +1951,7 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="N13" s="8">
-        <v>2</v>
-      </c>
+      <c r="N13" s="11"/>
       <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:16" ht="85">
@@ -2005,9 +1993,7 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="N14" s="8">
-        <v>1</v>
-      </c>
+      <c r="N14" s="11"/>
       <c r="P14" s="4"/>
     </row>
     <row r="15" spans="1:16" ht="85">
@@ -2049,9 +2035,7 @@
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="N15" s="8">
-        <v>2</v>
-      </c>
+      <c r="N15" s="11"/>
       <c r="P15" s="4"/>
     </row>
     <row r="16" spans="1:16" ht="85">
@@ -2093,9 +2077,7 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="N16" s="8">
-        <v>0</v>
-      </c>
+      <c r="N16" s="11"/>
       <c r="P16" s="4"/>
     </row>
     <row r="17" spans="1:16" ht="51">
@@ -2137,9 +2119,7 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="N17" s="8">
-        <v>2</v>
-      </c>
+      <c r="N17" s="11"/>
       <c r="P17" s="4"/>
     </row>
     <row r="18" spans="1:16" ht="51">
@@ -2181,9 +2161,7 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="N18" s="8">
-        <v>0</v>
-      </c>
+      <c r="N18" s="11"/>
       <c r="P18" s="4"/>
     </row>
     <row r="19" spans="1:16" ht="68">
@@ -2225,9 +2203,7 @@
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="N19" s="8">
-        <v>2</v>
-      </c>
+      <c r="N19" s="11"/>
       <c r="P19" s="4"/>
     </row>
     <row r="20" spans="1:16" ht="51">
@@ -2269,9 +2245,7 @@
         <f t="shared" si="1"/>
         <v>168</v>
       </c>
-      <c r="N20" s="8">
-        <v>1</v>
-      </c>
+      <c r="N20" s="11"/>
       <c r="P20" s="4"/>
     </row>
     <row r="21" spans="1:16" ht="40" customHeight="1">
@@ -2313,9 +2287,7 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="N21" s="8">
-        <v>1</v>
-      </c>
+      <c r="N21" s="11"/>
       <c r="P21" s="4"/>
     </row>
     <row r="22" spans="1:16" ht="85">
@@ -2357,9 +2329,7 @@
         <f t="shared" si="1"/>
         <v>514</v>
       </c>
-      <c r="N22" s="8">
-        <v>8</v>
-      </c>
+      <c r="N22" s="11"/>
       <c r="P22" s="4"/>
     </row>
     <row r="23" spans="1:16" ht="85">
@@ -2401,9 +2371,7 @@
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="N23" s="8">
-        <v>4</v>
-      </c>
+      <c r="N23" s="11"/>
       <c r="P23" s="4"/>
     </row>
     <row r="24" spans="1:16" ht="85">
@@ -2445,9 +2413,7 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="N24" s="8">
-        <v>1</v>
-      </c>
+      <c r="N24" s="11"/>
       <c r="P24" s="4"/>
     </row>
     <row r="25" spans="1:16" ht="85">
@@ -2489,9 +2455,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="N25" s="8">
-        <v>0</v>
-      </c>
+      <c r="N25" s="11"/>
       <c r="P25" s="4"/>
     </row>
     <row r="26" spans="1:16" ht="85">
@@ -2533,9 +2497,7 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="N26" s="8">
-        <v>1</v>
-      </c>
+      <c r="N26" s="11"/>
       <c r="P26" s="4"/>
     </row>
     <row r="27" spans="1:16" ht="85">
@@ -2577,9 +2539,7 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="N27" s="8">
-        <v>3</v>
-      </c>
+      <c r="N27" s="11"/>
       <c r="P27" s="4"/>
     </row>
     <row r="28" spans="1:16" ht="85">
@@ -2621,9 +2581,7 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="N28" s="8">
-        <v>0</v>
-      </c>
+      <c r="N28" s="11"/>
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="1:16" ht="33" customHeight="1">
@@ -2665,9 +2623,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N29" s="8">
-        <v>0</v>
-      </c>
+      <c r="N29" s="11"/>
       <c r="P29" s="2"/>
     </row>
     <row r="30" spans="1:16" ht="153">
@@ -2709,9 +2665,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="N30" s="8">
-        <v>1</v>
-      </c>
+      <c r="N30" s="11"/>
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="1:16" ht="104" customHeight="1">
@@ -2753,9 +2707,7 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="N31" s="8">
-        <v>0</v>
-      </c>
+      <c r="N31" s="11"/>
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="1:16" ht="85" customHeight="1">
@@ -2797,9 +2749,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="N32" s="8">
-        <v>0</v>
-      </c>
+      <c r="N32" s="11"/>
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="1:16" ht="80" customHeight="1">
@@ -2841,9 +2791,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N33" s="8">
-        <v>0</v>
-      </c>
+      <c r="N33" s="11"/>
       <c r="P33" s="2"/>
     </row>
     <row r="34" spans="1:16" ht="109" customHeight="1">
@@ -2885,9 +2833,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="N34" s="8">
-        <v>0</v>
-      </c>
+      <c r="N34" s="11"/>
       <c r="P34" s="2"/>
     </row>
     <row r="35" spans="1:16" ht="85">
@@ -2929,9 +2875,7 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="N35" s="8">
-        <v>0</v>
-      </c>
+      <c r="N35" s="11"/>
       <c r="P35" s="2"/>
     </row>
     <row r="36" spans="1:16" ht="55" customHeight="1">
@@ -2973,9 +2917,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="N36" s="8">
-        <v>1</v>
-      </c>
+      <c r="N36" s="11"/>
       <c r="P36" s="2"/>
     </row>
     <row r="37" spans="1:16" ht="98" customHeight="1">
@@ -3017,9 +2959,7 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="N37" s="8">
-        <v>1</v>
-      </c>
+      <c r="N37" s="11"/>
       <c r="P37" s="2"/>
     </row>
     <row r="38" spans="1:16" ht="68">
@@ -3061,9 +3001,7 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="N38" s="8">
-        <v>1</v>
-      </c>
+      <c r="N38" s="11"/>
       <c r="P38" s="4"/>
     </row>
     <row r="39" spans="1:16" ht="68" customHeight="1">
@@ -3105,9 +3043,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="N39" s="8">
-        <v>0</v>
-      </c>
+      <c r="N39" s="11"/>
       <c r="P39" s="2"/>
     </row>
     <row r="40" spans="1:16" ht="140" customHeight="1">
@@ -3149,9 +3085,7 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="N40" s="8">
-        <v>1</v>
-      </c>
+      <c r="N40" s="11"/>
       <c r="P40" s="2"/>
     </row>
     <row r="41" spans="1:16" ht="68">
@@ -3193,9 +3127,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="N41" s="8">
-        <v>0</v>
-      </c>
+      <c r="N41" s="11"/>
       <c r="P41" s="2"/>
     </row>
     <row r="42" spans="1:16" ht="68">
@@ -3237,9 +3169,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="N42" s="8">
-        <v>0</v>
-      </c>
+      <c r="N42" s="11"/>
       <c r="P42" s="2"/>
     </row>
     <row r="43" spans="1:16" ht="46" customHeight="1">
@@ -3281,9 +3211,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="N43" s="8">
-        <v>0</v>
-      </c>
+      <c r="N43" s="11"/>
       <c r="P43" s="2"/>
     </row>
     <row r="44" spans="1:16" ht="76" customHeight="1">
@@ -3325,9 +3253,7 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="N44" s="8">
-        <v>0</v>
-      </c>
+      <c r="N44" s="11"/>
       <c r="P44" s="2"/>
     </row>
     <row r="45" spans="1:16" ht="170">
@@ -3369,9 +3295,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="N45" s="8">
-        <v>0</v>
-      </c>
+      <c r="N45" s="11"/>
       <c r="P45" s="2"/>
     </row>
     <row r="46" spans="1:16" ht="187">
@@ -3413,9 +3337,7 @@
         <f t="shared" si="1"/>
         <v>142</v>
       </c>
-      <c r="N46" s="8">
-        <v>2</v>
-      </c>
+      <c r="N46" s="11"/>
       <c r="P46" s="2"/>
     </row>
     <row r="47" spans="1:16" ht="95" customHeight="1">
@@ -3457,9 +3379,7 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="N47" s="8">
-        <v>1</v>
-      </c>
+      <c r="N47" s="11"/>
       <c r="P47" s="2"/>
     </row>
     <row r="48" spans="1:16" ht="102">
@@ -3501,9 +3421,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="N48" s="8">
-        <v>0</v>
-      </c>
+      <c r="N48" s="11"/>
       <c r="P48" s="2"/>
     </row>
     <row r="49" spans="1:16" ht="66" customHeight="1">
@@ -3545,9 +3463,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="N49" s="8">
-        <v>1</v>
-      </c>
+      <c r="N49" s="11"/>
       <c r="P49" s="2"/>
     </row>
     <row r="50" spans="1:16" ht="93" customHeight="1">
@@ -3589,9 +3505,7 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="N50" s="8">
-        <v>1</v>
-      </c>
+      <c r="N50" s="11"/>
       <c r="P50" s="2"/>
     </row>
     <row r="51" spans="1:16" ht="85">
@@ -3633,9 +3547,7 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="N51" s="8">
-        <v>0</v>
-      </c>
+      <c r="N51" s="11"/>
       <c r="P51" s="2"/>
     </row>
     <row r="52" spans="1:16" ht="58" customHeight="1">
@@ -3677,9 +3589,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N52" s="8">
-        <v>0</v>
-      </c>
+      <c r="N52" s="11"/>
       <c r="P52" s="2"/>
     </row>
     <row r="53" spans="1:16" ht="85">
@@ -3721,9 +3631,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="N53" s="8">
-        <v>0</v>
-      </c>
+      <c r="N53" s="11"/>
       <c r="P53" s="2"/>
     </row>
     <row r="54" spans="1:16" ht="67" customHeight="1">
@@ -3765,9 +3673,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="N54" s="8">
-        <v>1</v>
-      </c>
+      <c r="N54" s="11"/>
       <c r="P54" s="2"/>
     </row>
     <row r="55" spans="1:16" ht="117" customHeight="1">
@@ -3809,9 +3715,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="N55" s="8">
-        <v>0</v>
-      </c>
+      <c r="N55" s="11"/>
       <c r="P55" s="2"/>
     </row>
     <row r="56" spans="1:16" ht="55" customHeight="1">
@@ -3853,9 +3757,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="N56" s="8">
-        <v>1</v>
-      </c>
+      <c r="N56" s="11"/>
       <c r="P56" s="2"/>
     </row>
     <row r="57" spans="1:16" ht="66" customHeight="1">
@@ -3897,9 +3799,7 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="N57" s="8">
-        <v>4</v>
-      </c>
+      <c r="N57" s="11"/>
       <c r="P57" s="2"/>
     </row>
     <row r="58" spans="1:16" ht="93" customHeight="1">
@@ -3941,9 +3841,7 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="N58" s="8">
-        <v>1</v>
-      </c>
+      <c r="N58" s="11"/>
       <c r="P58" s="2"/>
     </row>
     <row r="59" spans="1:16" ht="75" customHeight="1">
@@ -3985,9 +3883,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="N59" s="8">
-        <v>0</v>
-      </c>
+      <c r="N59" s="11"/>
       <c r="P59" s="2"/>
     </row>
     <row r="60" spans="1:16" ht="68">
@@ -4029,9 +3925,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="N60" s="8">
-        <v>1</v>
-      </c>
+      <c r="N60" s="11"/>
       <c r="P60" s="2"/>
     </row>
     <row r="61" spans="1:16" ht="65" customHeight="1">
@@ -4073,9 +3967,7 @@
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="N61" s="8">
-        <v>0</v>
-      </c>
+      <c r="N61" s="11"/>
       <c r="P61" s="2"/>
     </row>
     <row r="62" spans="1:16" ht="85">
@@ -4117,9 +4009,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="N62" s="8">
-        <v>0</v>
-      </c>
+      <c r="N62" s="11"/>
       <c r="P62" s="2"/>
     </row>
     <row r="63" spans="1:16" ht="94" customHeight="1">
@@ -4161,9 +4051,7 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="N63" s="8">
-        <v>1</v>
-      </c>
+      <c r="N63" s="11"/>
       <c r="P63" s="2"/>
     </row>
     <row r="64" spans="1:16" ht="89" customHeight="1">
@@ -4205,9 +4093,7 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="N64" s="8">
-        <v>1</v>
-      </c>
+      <c r="N64" s="11"/>
       <c r="P64" s="2"/>
     </row>
     <row r="65" spans="1:16" ht="64" customHeight="1">
@@ -4249,9 +4135,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="N65" s="8">
-        <v>0</v>
-      </c>
+      <c r="N65" s="11"/>
       <c r="P65" s="2"/>
     </row>
     <row r="66" spans="1:16" ht="29" customHeight="1">
@@ -4293,9 +4177,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="N66" s="8">
-        <v>0</v>
-      </c>
+      <c r="N66" s="11"/>
       <c r="P66" s="2"/>
     </row>
     <row r="67" spans="1:16" ht="73" customHeight="1">
@@ -4337,9 +4219,7 @@
         <f t="shared" ref="L67:L111" si="4">G67-K67</f>
         <v>7</v>
       </c>
-      <c r="N67" s="8">
-        <v>0</v>
-      </c>
+      <c r="N67" s="11"/>
       <c r="P67" s="2"/>
     </row>
     <row r="68" spans="1:16" ht="85">
@@ -4381,9 +4261,7 @@
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="N68" s="8">
-        <v>0</v>
-      </c>
+      <c r="N68" s="11"/>
       <c r="P68" s="2"/>
     </row>
     <row r="69" spans="1:16" ht="85">
@@ -4425,9 +4303,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="N69" s="8">
-        <v>0</v>
-      </c>
+      <c r="N69" s="11"/>
       <c r="P69" s="2"/>
     </row>
     <row r="70" spans="1:16" ht="89" customHeight="1">
@@ -4469,9 +4345,7 @@
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="N70" s="8">
-        <v>0</v>
-      </c>
+      <c r="N70" s="11"/>
       <c r="P70" s="2"/>
     </row>
     <row r="71" spans="1:16" ht="102">
@@ -4513,9 +4387,7 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="N71" s="8">
-        <v>0</v>
-      </c>
+      <c r="N71" s="11"/>
       <c r="P71" s="2"/>
     </row>
     <row r="72" spans="1:16" ht="85">
@@ -4557,9 +4429,7 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="N72" s="8">
-        <v>0</v>
-      </c>
+      <c r="N72" s="11"/>
       <c r="P72" s="2"/>
     </row>
     <row r="73" spans="1:16" ht="61" customHeight="1">
@@ -4601,9 +4471,7 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="N73" s="8">
-        <v>0</v>
-      </c>
+      <c r="N73" s="11"/>
       <c r="P73" s="2"/>
     </row>
     <row r="74" spans="1:16" ht="85">
@@ -4645,9 +4513,7 @@
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="N74" s="8">
-        <v>1</v>
-      </c>
+      <c r="N74" s="11"/>
       <c r="P74" s="2"/>
     </row>
     <row r="75" spans="1:16" ht="68">
@@ -4689,9 +4555,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="N75" s="8">
-        <v>0</v>
-      </c>
+      <c r="N75" s="11"/>
       <c r="P75" s="2"/>
     </row>
     <row r="76" spans="1:16" ht="58" customHeight="1">
@@ -4733,9 +4597,7 @@
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="N76" s="8">
-        <v>0</v>
-      </c>
+      <c r="N76" s="11"/>
       <c r="P76" s="2"/>
     </row>
     <row r="77" spans="1:16" ht="68">
@@ -4777,9 +4639,7 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="N77" s="8">
-        <v>0</v>
-      </c>
+      <c r="N77" s="11"/>
       <c r="P77" s="2"/>
     </row>
     <row r="78" spans="1:16" ht="102" customHeight="1">
@@ -4821,9 +4681,7 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="N78" s="8">
-        <v>0</v>
-      </c>
+      <c r="N78" s="11"/>
       <c r="P78" s="2"/>
     </row>
     <row r="79" spans="1:16" ht="68">
@@ -4865,9 +4723,7 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="N79" s="8">
-        <v>1</v>
-      </c>
+      <c r="N79" s="11"/>
       <c r="P79" s="2"/>
     </row>
     <row r="80" spans="1:16" ht="51">
@@ -4909,9 +4765,7 @@
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="N80" s="8">
-        <v>0</v>
-      </c>
+      <c r="N80" s="11"/>
       <c r="P80" s="2"/>
     </row>
     <row r="81" spans="1:16" ht="83" customHeight="1">
@@ -4953,9 +4807,7 @@
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="N81" s="8">
-        <v>1</v>
-      </c>
+      <c r="N81" s="11"/>
       <c r="P81" s="2"/>
     </row>
     <row r="82" spans="1:16" ht="76" customHeight="1">
@@ -4997,9 +4849,7 @@
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="N82" s="8">
-        <v>1</v>
-      </c>
+      <c r="N82" s="11"/>
       <c r="P82" s="2"/>
     </row>
     <row r="83" spans="1:16" ht="72" customHeight="1">
@@ -5041,9 +4891,7 @@
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="N83" s="8">
-        <v>0</v>
-      </c>
+      <c r="N83" s="11"/>
       <c r="P83" s="2"/>
     </row>
     <row r="84" spans="1:16" ht="72" customHeight="1">
@@ -5085,9 +4933,7 @@
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="N84" s="8">
-        <v>0</v>
-      </c>
+      <c r="N84" s="11"/>
       <c r="P84" s="2"/>
     </row>
     <row r="85" spans="1:16" ht="90" customHeight="1">
@@ -5129,9 +4975,7 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="N85" s="8">
-        <v>0</v>
-      </c>
+      <c r="N85" s="11"/>
       <c r="P85" s="2"/>
     </row>
     <row r="86" spans="1:16" ht="51">
@@ -5173,9 +5017,7 @@
         <f t="shared" si="4"/>
         <v>57</v>
       </c>
-      <c r="N86" s="8">
-        <v>1</v>
-      </c>
+      <c r="N86" s="11"/>
       <c r="P86" s="2"/>
     </row>
     <row r="87" spans="1:16" ht="81" customHeight="1">
@@ -5217,9 +5059,7 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="N87" s="8">
-        <v>0</v>
-      </c>
+      <c r="N87" s="11"/>
       <c r="P87" s="2"/>
     </row>
     <row r="88" spans="1:16" ht="51">
@@ -5261,9 +5101,7 @@
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
-      <c r="N88" s="8">
-        <v>1</v>
-      </c>
+      <c r="N88" s="11"/>
       <c r="P88" s="2"/>
     </row>
     <row r="89" spans="1:16" ht="102">
@@ -5305,9 +5143,7 @@
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="N89" s="8">
-        <v>0</v>
-      </c>
+      <c r="N89" s="11"/>
       <c r="P89" s="2"/>
     </row>
     <row r="90" spans="1:16" ht="119">
@@ -5349,9 +5185,7 @@
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="N90" s="8">
-        <v>1</v>
-      </c>
+      <c r="N90" s="11"/>
       <c r="P90" s="2"/>
     </row>
     <row r="91" spans="1:16" ht="68">
@@ -5393,9 +5227,7 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="N91" s="8">
-        <v>0</v>
-      </c>
+      <c r="N91" s="11"/>
       <c r="P91" s="2"/>
     </row>
     <row r="92" spans="1:16" ht="85">
@@ -5437,9 +5269,7 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="N92" s="8">
-        <v>0</v>
-      </c>
+      <c r="N92" s="11"/>
       <c r="P92" s="2"/>
     </row>
     <row r="93" spans="1:16" ht="85">
@@ -5481,9 +5311,7 @@
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="N93" s="8">
-        <v>1</v>
-      </c>
+      <c r="N93" s="11"/>
       <c r="P93" s="2"/>
     </row>
     <row r="94" spans="1:16" ht="85">
@@ -5525,9 +5353,7 @@
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="N94" s="8">
-        <v>0</v>
-      </c>
+      <c r="N94" s="11"/>
       <c r="P94" s="2"/>
     </row>
     <row r="95" spans="1:16" ht="136">
@@ -5569,9 +5395,7 @@
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="N95" s="8">
-        <v>0</v>
-      </c>
+      <c r="N95" s="11"/>
       <c r="P95" s="2"/>
     </row>
     <row r="96" spans="1:16" ht="96" customHeight="1">
@@ -5613,9 +5437,7 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="N96" s="8">
-        <v>1</v>
-      </c>
+      <c r="N96" s="11"/>
       <c r="P96" s="2"/>
     </row>
     <row r="97" spans="1:16" ht="68">
@@ -5657,9 +5479,7 @@
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
-      <c r="N97" s="8">
-        <v>1</v>
-      </c>
+      <c r="N97" s="11"/>
       <c r="P97" s="2"/>
     </row>
     <row r="98" spans="1:16" ht="71" customHeight="1">
@@ -5701,9 +5521,7 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="N98" s="8">
-        <v>1</v>
-      </c>
+      <c r="N98" s="11"/>
       <c r="P98" s="2"/>
     </row>
     <row r="99" spans="1:16" ht="73" customHeight="1">
@@ -5745,9 +5563,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="N99" s="8">
-        <v>0</v>
-      </c>
+      <c r="N99" s="11"/>
       <c r="P99" s="2"/>
     </row>
     <row r="100" spans="1:16" ht="85">
@@ -5789,9 +5605,7 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="N100" s="8">
-        <v>0</v>
-      </c>
+      <c r="N100" s="11"/>
       <c r="P100" s="2"/>
     </row>
     <row r="101" spans="1:16" ht="85">
@@ -5833,9 +5647,7 @@
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="N101" s="8">
-        <v>2</v>
-      </c>
+      <c r="N101" s="11"/>
       <c r="P101" s="2"/>
     </row>
     <row r="102" spans="1:16" ht="64" customHeight="1">
@@ -5877,9 +5689,7 @@
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="N102" s="8">
-        <v>0</v>
-      </c>
+      <c r="N102" s="11"/>
       <c r="P102" s="2"/>
     </row>
     <row r="103" spans="1:16" ht="85">
@@ -5921,9 +5731,7 @@
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="N103" s="8">
-        <v>0</v>
-      </c>
+      <c r="N103" s="11"/>
       <c r="P103" s="2"/>
     </row>
     <row r="104" spans="1:16" ht="78" customHeight="1">
@@ -5964,9 +5772,7 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="N104" s="8">
-        <v>0</v>
-      </c>
+      <c r="N104" s="11"/>
       <c r="P104" s="2"/>
     </row>
     <row r="105" spans="1:16" ht="85">
@@ -6007,9 +5813,7 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="N105" s="8">
-        <v>0</v>
-      </c>
+      <c r="N105" s="11"/>
       <c r="P105" s="2"/>
     </row>
     <row r="106" spans="1:16" ht="85">
@@ -6051,9 +5855,7 @@
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="N106" s="8">
-        <v>1</v>
-      </c>
+      <c r="N106" s="11"/>
       <c r="P106" s="2"/>
     </row>
     <row r="107" spans="1:16" ht="63" customHeight="1">
@@ -6095,9 +5897,7 @@
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="N107" s="8">
-        <v>0</v>
-      </c>
+      <c r="N107" s="11"/>
       <c r="P107" s="2"/>
     </row>
     <row r="108" spans="1:16" ht="75" customHeight="1">
@@ -6139,9 +5939,7 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="N108" s="8">
-        <v>1</v>
-      </c>
+      <c r="N108" s="11"/>
       <c r="P108" s="2"/>
     </row>
     <row r="109" spans="1:16" ht="71" customHeight="1">
@@ -6183,9 +5981,7 @@
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="N109" s="8">
-        <v>0</v>
-      </c>
+      <c r="N109" s="11"/>
       <c r="P109" s="2"/>
     </row>
     <row r="110" spans="1:16" ht="85">
@@ -6227,9 +6023,7 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="N110" s="8">
-        <v>0</v>
-      </c>
+      <c r="N110" s="11"/>
       <c r="P110" s="2"/>
     </row>
     <row r="111" spans="1:16" ht="85">
@@ -6271,9 +6065,7 @@
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="N111" s="8">
-        <v>1</v>
-      </c>
+      <c r="N111" s="11"/>
       <c r="P111" s="2"/>
     </row>
     <row r="112" spans="1:16" ht="18" customHeight="1">
@@ -6305,10 +6097,7 @@
         <f t="shared" si="7"/>
         <v>3998</v>
       </c>
-      <c r="N112" s="4">
-        <f>SUM(N2:N111)</f>
-        <v>84</v>
-      </c>
+      <c r="N112" s="12"/>
     </row>
     <row r="114" spans="9:10" ht="18" customHeight="1">
       <c r="I114" s="3">
